--- a/data/Calibration/Processed/Import by Industry.xlsx
+++ b/data/Calibration/Processed/Import by Industry.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricks\Dropbox\PC\Desktop\University of Wisconsin-Madison\Research\RA with Alder\clusters\data\Calibration\Processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B109E689-9DC1-4203-A5DB-696B96E2336C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB77FAFA-5E98-421F-A822-80341CC8583A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12549" activeTab="3" xr2:uid="{B25D0F4B-9A64-4178-B1BB-71777BC2ACE3}"/>
+    <workbookView xWindow="38280" yWindow="3360" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{B25D0F4B-9A64-4178-B1BB-71777BC2ACE3}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="26" r:id="rId1"/>
     <sheet name="NAICS Codes" sheetId="27" r:id="rId2"/>
-    <sheet name="Notes" sheetId="29" r:id="rId3"/>
+    <sheet name="Keys" sheetId="29" r:id="rId3"/>
     <sheet name="2019raw" sheetId="24" r:id="rId4"/>
-    <sheet name="2019clean" sheetId="28" r:id="rId5"/>
-    <sheet name="2020raw" sheetId="25" r:id="rId6"/>
-    <sheet name="2020clean" sheetId="30" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="31" r:id="rId5"/>
+    <sheet name="2019clean" sheetId="28" r:id="rId6"/>
+    <sheet name="2020raw" sheetId="25" r:id="rId7"/>
+    <sheet name="2020clean" sheetId="30" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'NAICS Codes'!#REF!</definedName>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10625" uniqueCount="899">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10742" uniqueCount="905">
   <si>
     <t>Import Matrix, Before Redefinitions</t>
   </si>
@@ -2736,9 +2737,6 @@
     <t>Service</t>
   </si>
   <si>
-    <t>Others</t>
-  </si>
-  <si>
     <t>total sum</t>
   </si>
   <si>
@@ -2788,6 +2786,27 @@
   </si>
   <si>
     <t>Billions</t>
+  </si>
+  <si>
+    <t>Industries</t>
+  </si>
+  <si>
+    <t>raw</t>
+  </si>
+  <si>
+    <t>*-1</t>
+  </si>
+  <si>
+    <t>import</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>2-digit NAICS</t>
+  </si>
+  <si>
+    <t>4 industry</t>
   </si>
 </sst>
 </file>
@@ -2798,7 +2817,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2893,28 +2912,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="25">
@@ -3224,7 +3234,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3396,13 +3406,9 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3416,6 +3422,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3445,6 +3452,13 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -3877,38 +3891,38 @@
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:25" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="81" t="s">
+      <c r="A25" s="80" t="s">
         <v>212</v>
       </c>
-      <c r="B25" s="83" t="s">
+      <c r="B25" s="82" t="s">
         <v>213</v>
       </c>
-      <c r="C25" s="84"/>
-      <c r="D25" s="84"/>
-      <c r="E25" s="84"/>
-      <c r="F25" s="84"/>
-      <c r="G25" s="84"/>
-      <c r="H25" s="84"/>
-      <c r="I25" s="84"/>
-      <c r="J25" s="84"/>
-      <c r="K25" s="84"/>
-      <c r="L25" s="84"/>
-      <c r="M25" s="84"/>
-      <c r="N25" s="84"/>
-      <c r="O25" s="84"/>
-      <c r="P25" s="84"/>
-      <c r="Q25" s="84"/>
-      <c r="R25" s="84"/>
-      <c r="S25" s="84"/>
-      <c r="T25" s="84"/>
-      <c r="U25" s="84"/>
-      <c r="V25" s="84"/>
-      <c r="W25" s="84"/>
-      <c r="X25" s="84"/>
-      <c r="Y25" s="85"/>
+      <c r="C25" s="83"/>
+      <c r="D25" s="83"/>
+      <c r="E25" s="83"/>
+      <c r="F25" s="83"/>
+      <c r="G25" s="83"/>
+      <c r="H25" s="83"/>
+      <c r="I25" s="83"/>
+      <c r="J25" s="83"/>
+      <c r="K25" s="83"/>
+      <c r="L25" s="83"/>
+      <c r="M25" s="83"/>
+      <c r="N25" s="83"/>
+      <c r="O25" s="83"/>
+      <c r="P25" s="83"/>
+      <c r="Q25" s="83"/>
+      <c r="R25" s="83"/>
+      <c r="S25" s="83"/>
+      <c r="T25" s="83"/>
+      <c r="U25" s="83"/>
+      <c r="V25" s="83"/>
+      <c r="W25" s="83"/>
+      <c r="X25" s="83"/>
+      <c r="Y25" s="84"/>
     </row>
     <row r="26" spans="1:25" ht="11.15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="82"/>
+      <c r="A26" s="81"/>
       <c r="B26" s="16">
         <v>1997</v>
       </c>
@@ -4868,9 +4882,9 @@
   <dimension ref="A1:G1031"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A734" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B25" sqref="B25:Y36"/>
-      <selection pane="bottomLeft" activeCell="A34" sqref="A34:B34"/>
+      <selection pane="bottomLeft" activeCell="A764" sqref="A764"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="10.75" x14ac:dyDescent="0.3"/>
@@ -4883,26 +4897,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="86" t="s">
         <v>240</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
     </row>
     <row r="2" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="87" t="s">
         <v>241</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="42"/>
@@ -4914,13 +4928,13 @@
       <c r="G3" s="42"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="88" t="s">
         <v>242</v>
       </c>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89" t="s">
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88" t="s">
         <v>243</v>
       </c>
       <c r="F4" s="42"/>
@@ -4939,7 +4953,7 @@
       <c r="D5" s="44" t="s">
         <v>247</v>
       </c>
-      <c r="E5" s="90"/>
+      <c r="E5" s="89"/>
       <c r="F5" s="45" t="s">
         <v>248</v>
       </c>
@@ -16706,48 +16720,48 @@
       <c r="C1027" s="54"/>
     </row>
     <row r="1028" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1028" s="86" t="s">
+      <c r="A1028" s="85" t="s">
         <v>872</v>
       </c>
-      <c r="B1028" s="86"/>
-      <c r="C1028" s="86"/>
-      <c r="D1028" s="86"/>
-      <c r="E1028" s="86"/>
-      <c r="F1028" s="86"/>
-      <c r="G1028" s="86"/>
+      <c r="B1028" s="85"/>
+      <c r="C1028" s="85"/>
+      <c r="D1028" s="85"/>
+      <c r="E1028" s="85"/>
+      <c r="F1028" s="85"/>
+      <c r="G1028" s="85"/>
     </row>
     <row r="1029" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1029" s="86" t="s">
+      <c r="A1029" s="85" t="s">
         <v>873</v>
       </c>
-      <c r="B1029" s="86"/>
-      <c r="C1029" s="86"/>
-      <c r="D1029" s="86"/>
-      <c r="E1029" s="86"/>
-      <c r="F1029" s="86"/>
-      <c r="G1029" s="86"/>
+      <c r="B1029" s="85"/>
+      <c r="C1029" s="85"/>
+      <c r="D1029" s="85"/>
+      <c r="E1029" s="85"/>
+      <c r="F1029" s="85"/>
+      <c r="G1029" s="85"/>
     </row>
     <row r="1030" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1030" s="86" t="s">
+      <c r="A1030" s="85" t="s">
         <v>874</v>
       </c>
-      <c r="B1030" s="86"/>
-      <c r="C1030" s="86"/>
-      <c r="D1030" s="86"/>
-      <c r="E1030" s="86"/>
-      <c r="F1030" s="86"/>
-      <c r="G1030" s="86"/>
+      <c r="B1030" s="85"/>
+      <c r="C1030" s="85"/>
+      <c r="D1030" s="85"/>
+      <c r="E1030" s="85"/>
+      <c r="F1030" s="85"/>
+      <c r="G1030" s="85"/>
     </row>
     <row r="1031" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1031" s="86" t="s">
+      <c r="A1031" s="85" t="s">
         <v>875</v>
       </c>
-      <c r="B1031" s="86"/>
-      <c r="C1031" s="86"/>
-      <c r="D1031" s="86"/>
-      <c r="E1031" s="86"/>
-      <c r="F1031" s="86"/>
-      <c r="G1031" s="86"/>
+      <c r="B1031" s="85"/>
+      <c r="C1031" s="85"/>
+      <c r="D1031" s="85"/>
+      <c r="E1031" s="85"/>
+      <c r="F1031" s="85"/>
+      <c r="G1031" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -16768,10 +16782,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC440C87-A747-43ED-A8C0-5E5363011515}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection sqref="A1:A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -16787,203 +16801,187 @@
         <v>877</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A2" s="69"/>
-      <c r="B2" s="73" t="s">
-        <v>878</v>
+    <row r="2" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A2" s="70">
+        <v>11</v>
+      </c>
+      <c r="B2" s="70" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A3" s="70">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B3" s="70" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
-      <c r="A4" s="70"/>
-      <c r="B4" s="71" t="s">
-        <v>879</v>
+        <v>275</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" s="46">
+        <v>22</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A5" s="70">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" s="70" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
-      <c r="A6" s="70">
-        <v>23</v>
+      <c r="A6" s="70" t="s">
+        <v>325</v>
       </c>
       <c r="B6" s="70" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A7" s="70" t="s">
-        <v>325</v>
+        <v>533</v>
       </c>
       <c r="B7" s="70" t="s">
-        <v>326</v>
+        <v>534</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
-      <c r="A8" s="70" t="s">
-        <v>533</v>
+      <c r="A8" s="70">
+        <v>42</v>
       </c>
       <c r="B8" s="70" t="s">
-        <v>534</v>
+        <v>633</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
-      <c r="A9" s="70"/>
-      <c r="B9" s="71" t="s">
-        <v>880</v>
+      <c r="A9" s="70" t="s">
+        <v>654</v>
+      </c>
+      <c r="B9" s="70" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
-      <c r="A10" s="70">
-        <v>42</v>
+      <c r="A10" s="70" t="s">
+        <v>665</v>
       </c>
       <c r="B10" s="70" t="s">
-        <v>633</v>
+        <v>666</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
-      <c r="A11" s="70" t="s">
-        <v>654</v>
+      <c r="A11" s="70">
+        <v>51</v>
       </c>
       <c r="B11" s="70" t="s">
-        <v>655</v>
+        <v>675</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
-      <c r="A12" s="70" t="s">
-        <v>665</v>
-      </c>
-      <c r="B12" s="70" t="s">
-        <v>666</v>
+      <c r="A12" s="70">
+        <v>52</v>
+      </c>
+      <c r="B12" s="71" t="s">
+        <v>702</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A13" s="70">
-        <v>51</v>
-      </c>
-      <c r="B13" s="70" t="s">
-        <v>675</v>
+        <v>53</v>
+      </c>
+      <c r="B13" s="71" t="s">
+        <v>720</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A14" s="70">
-        <v>52</v>
-      </c>
-      <c r="B14" s="72" t="s">
-        <v>702</v>
+        <v>54</v>
+      </c>
+      <c r="B14" s="70" t="s">
+        <v>734</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A15" s="70">
-        <v>53</v>
-      </c>
-      <c r="B15" s="72" t="s">
-        <v>720</v>
+        <v>55</v>
+      </c>
+      <c r="B15" s="70" t="s">
+        <v>757</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A16" s="70">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B16" s="70" t="s">
-        <v>734</v>
+        <v>758</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A17" s="70">
-        <v>55</v>
-      </c>
-      <c r="B17" s="70" t="s">
-        <v>757</v>
+        <v>61</v>
+      </c>
+      <c r="B17" s="71" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A18" s="70">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B18" s="70" t="s">
-        <v>758</v>
+        <v>777</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A19" s="70">
-        <v>61</v>
-      </c>
-      <c r="B19" s="72" t="s">
-        <v>769</v>
+        <v>71</v>
+      </c>
+      <c r="B19" s="70" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A20" s="70">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B20" s="70" t="s">
-        <v>777</v>
+        <v>808</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A21" s="70">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="B21" s="70" t="s">
-        <v>797</v>
+        <v>814</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
-      <c r="A22" s="70">
-        <v>72</v>
-      </c>
-      <c r="B22" s="70" t="s">
-        <v>808</v>
+      <c r="A22" s="70" t="s">
+        <v>834</v>
+      </c>
+      <c r="B22" s="71" t="s">
+        <v>835</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
-      <c r="A23" s="70">
-        <v>81</v>
-      </c>
-      <c r="B23" s="70" t="s">
-        <v>814</v>
+      <c r="A23" s="70" t="s">
+        <v>192</v>
+      </c>
+      <c r="B23" s="71" t="s">
+        <v>856</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
-      <c r="A24" s="70"/>
+      <c r="A24" s="70" t="s">
+        <v>194</v>
+      </c>
       <c r="B24" s="71" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
-      <c r="A25" s="70" t="s">
-        <v>834</v>
-      </c>
-      <c r="B25" s="72" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
-      <c r="A26" s="70" t="s">
-        <v>192</v>
-      </c>
-      <c r="B26" s="72" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
-      <c r="A27" s="70" t="s">
-        <v>194</v>
-      </c>
-      <c r="B27" s="72" t="s">
         <v>863</v>
       </c>
     </row>
@@ -16996,15 +16994,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4A08517-176D-454A-9BB5-5CBEA697673F}">
   <dimension ref="A1:CS81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BQ1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="CD5" sqref="CD5"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="5.69140625" customWidth="1"/>
     <col min="2" max="2" width="50.69140625" customWidth="1"/>
     <col min="3" max="3" width="10.69140625" customWidth="1"/>
+    <col min="82" max="82" width="9.23046875" style="79"/>
     <col min="83" max="94" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -17269,7 +17266,7 @@
       <c r="CC6" t="s">
         <v>82</v>
       </c>
-      <c r="CD6" t="s">
+      <c r="CD6" s="79" t="s">
         <v>83</v>
       </c>
       <c r="CE6" t="s">
@@ -17556,7 +17553,7 @@
       <c r="CC7" t="s">
         <v>177</v>
       </c>
-      <c r="CD7" t="s">
+      <c r="CD7" s="79" t="s">
         <v>178</v>
       </c>
       <c r="CE7" t="s">
@@ -17599,10 +17596,10 @@
         <v>191</v>
       </c>
       <c r="CR7" t="s">
+        <v>881</v>
+      </c>
+      <c r="CS7" t="s">
         <v>882</v>
-      </c>
-      <c r="CS7" t="s">
-        <v>883</v>
       </c>
     </row>
     <row r="8" spans="1:97" x14ac:dyDescent="0.4">
@@ -17849,7 +17846,7 @@
       <c r="CC8" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CD8" s="1">
+      <c r="CD8" s="90">
         <v>-43306</v>
       </c>
       <c r="CE8" s="1" t="s">
@@ -17891,7 +17888,7 @@
       <c r="CQ8" s="1">
         <v>-19963</v>
       </c>
-      <c r="CR8" s="74">
+      <c r="CR8" s="72">
         <f>SUM(C8:CQ8)</f>
         <v>-1</v>
       </c>
@@ -18140,7 +18137,7 @@
       <c r="CC9" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CD9" s="1">
+      <c r="CD9" s="90">
         <v>-17995</v>
       </c>
       <c r="CE9" s="1" t="s">
@@ -18182,7 +18179,7 @@
       <c r="CQ9" s="1">
         <v>-15036</v>
       </c>
-      <c r="CR9" s="74">
+      <c r="CR9" s="72">
         <f t="shared" ref="CR9:CR72" si="0">SUM(C9:CQ9)</f>
         <v>0</v>
       </c>
@@ -18431,7 +18428,7 @@
       <c r="CC10" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CD10" s="1">
+      <c r="CD10" s="90">
         <v>-138764</v>
       </c>
       <c r="CE10" s="1" t="s">
@@ -18473,7 +18470,7 @@
       <c r="CQ10" s="1">
         <v>-138378</v>
       </c>
-      <c r="CR10" s="74">
+      <c r="CR10" s="72">
         <f t="shared" si="0"/>
         <v>-2</v>
       </c>
@@ -18722,7 +18719,7 @@
       <c r="CC11" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CD11" s="1">
+      <c r="CD11" s="90">
         <v>-5773</v>
       </c>
       <c r="CE11" s="1" t="s">
@@ -18764,7 +18761,7 @@
       <c r="CQ11" s="1">
         <v>-5694</v>
       </c>
-      <c r="CR11" s="74">
+      <c r="CR11" s="72">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
@@ -19013,7 +19010,7 @@
       <c r="CC12" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CD12" s="1">
+      <c r="CD12" s="90">
         <v>-703</v>
       </c>
       <c r="CE12" s="1" t="s">
@@ -19055,7 +19052,7 @@
       <c r="CQ12" s="1">
         <v>-121</v>
       </c>
-      <c r="CR12" s="74">
+      <c r="CR12" s="72">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -19304,7 +19301,7 @@
       <c r="CC13" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CD13" s="1">
+      <c r="CD13" s="90">
         <v>-2084</v>
       </c>
       <c r="CE13" s="1" t="s">
@@ -19346,7 +19343,7 @@
       <c r="CQ13" s="1">
         <v>-1413</v>
       </c>
-      <c r="CR13" s="74">
+      <c r="CR13" s="72">
         <f t="shared" si="0"/>
         <v>-3</v>
       </c>
@@ -19595,7 +19592,7 @@
       <c r="CC14" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CD14" s="1" t="s">
+      <c r="CD14" s="90" t="s">
         <v>196</v>
       </c>
       <c r="CE14" s="1" t="s">
@@ -19637,7 +19634,7 @@
       <c r="CQ14" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CR14" s="74">
+      <c r="CR14" s="72">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -19886,7 +19883,7 @@
       <c r="CC15" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CD15" s="1">
+      <c r="CD15" s="90">
         <v>-19851</v>
       </c>
       <c r="CE15" s="1" t="s">
@@ -19928,7 +19925,7 @@
       <c r="CQ15" s="1">
         <v>-17876</v>
       </c>
-      <c r="CR15" s="74">
+      <c r="CR15" s="72">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -20177,7 +20174,7 @@
       <c r="CC16" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CD16" s="1">
+      <c r="CD16" s="90">
         <v>-27834</v>
       </c>
       <c r="CE16" s="1" t="s">
@@ -20219,7 +20216,7 @@
       <c r="CQ16" s="1">
         <v>-22777</v>
       </c>
-      <c r="CR16" s="74">
+      <c r="CR16" s="72">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -20468,7 +20465,7 @@
       <c r="CC17" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CD17" s="1">
+      <c r="CD17" s="90">
         <v>-78029</v>
       </c>
       <c r="CE17" s="1" t="s">
@@ -20510,7 +20507,7 @@
       <c r="CQ17" s="1">
         <v>-77266</v>
       </c>
-      <c r="CR17" s="74">
+      <c r="CR17" s="72">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -20759,7 +20756,7 @@
       <c r="CC18" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CD18" s="1">
+      <c r="CD18" s="90">
         <v>-73364</v>
       </c>
       <c r="CE18" s="1" t="s">
@@ -20801,7 +20798,7 @@
       <c r="CQ18" s="1">
         <v>-60287</v>
       </c>
-      <c r="CR18" s="74">
+      <c r="CR18" s="72">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
@@ -21050,7 +21047,7 @@
       <c r="CC19" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CD19" s="1">
+      <c r="CD19" s="90">
         <v>-187227</v>
       </c>
       <c r="CE19" s="1" t="s">
@@ -21092,7 +21089,7 @@
       <c r="CQ19" s="1">
         <v>-90332</v>
       </c>
-      <c r="CR19" s="74">
+      <c r="CR19" s="72">
         <f t="shared" si="0"/>
         <v>-2</v>
       </c>
@@ -21341,7 +21338,7 @@
       <c r="CC20" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CD20" s="1">
+      <c r="CD20" s="90">
         <v>-326734</v>
       </c>
       <c r="CE20" s="1" t="s">
@@ -21383,7 +21380,7 @@
       <c r="CQ20" s="1">
         <v>-110588</v>
       </c>
-      <c r="CR20" s="74">
+      <c r="CR20" s="72">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -21632,7 +21629,7 @@
       <c r="CC21" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CD21" s="1">
+      <c r="CD21" s="90">
         <v>-112702</v>
       </c>
       <c r="CE21" s="1" t="s">
@@ -21674,7 +21671,7 @@
       <c r="CQ21" s="1">
         <v>-71372</v>
       </c>
-      <c r="CR21" s="74">
+      <c r="CR21" s="72">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
@@ -21923,7 +21920,7 @@
       <c r="CC22" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CD22" s="1">
+      <c r="CD22" s="90">
         <v>-343742</v>
       </c>
       <c r="CE22" s="1" t="s">
@@ -21965,7 +21962,7 @@
       <c r="CQ22" s="1">
         <v>-111239</v>
       </c>
-      <c r="CR22" s="74">
+      <c r="CR22" s="72">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
@@ -22214,7 +22211,7 @@
       <c r="CC23" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CD23" s="1">
+      <c r="CD23" s="90">
         <v>-57267</v>
       </c>
       <c r="CE23" s="1" t="s">
@@ -22256,7 +22253,7 @@
       <c r="CQ23" s="1">
         <v>-38340</v>
       </c>
-      <c r="CR23" s="74">
+      <c r="CR23" s="72">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
@@ -22505,7 +22502,7 @@
       <c r="CC24" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CD24" s="1">
+      <c r="CD24" s="90">
         <v>-47217</v>
       </c>
       <c r="CE24" s="1" t="s">
@@ -22547,7 +22544,7 @@
       <c r="CQ24" s="1">
         <v>-7153</v>
       </c>
-      <c r="CR24" s="74">
+      <c r="CR24" s="72">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
@@ -22796,7 +22793,7 @@
       <c r="CC25" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CD25" s="1">
+      <c r="CD25" s="90">
         <v>-103116</v>
       </c>
       <c r="CE25" s="1" t="s">
@@ -22838,7 +22835,7 @@
       <c r="CQ25" s="1">
         <v>-24467</v>
       </c>
-      <c r="CR25" s="74">
+      <c r="CR25" s="72">
         <f t="shared" si="0"/>
         <v>-2</v>
       </c>
@@ -23087,7 +23084,7 @@
       <c r="CC26" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CD26" s="1">
+      <c r="CD26" s="90">
         <v>-102316</v>
       </c>
       <c r="CE26" s="1" t="s">
@@ -23129,7 +23126,7 @@
       <c r="CQ26" s="1">
         <v>-40056</v>
       </c>
-      <c r="CR26" s="74">
+      <c r="CR26" s="72">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -23378,7 +23375,7 @@
       <c r="CC27" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CD27" s="1">
+      <c r="CD27" s="90">
         <v>-34955</v>
       </c>
       <c r="CE27" s="1" t="s">
@@ -23420,7 +23417,7 @@
       <c r="CQ27" s="1">
         <v>-21774</v>
       </c>
-      <c r="CR27" s="74">
+      <c r="CR27" s="72">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -23669,7 +23666,7 @@
       <c r="CC28" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CD28" s="1">
+      <c r="CD28" s="90">
         <v>-150544</v>
       </c>
       <c r="CE28" s="1" t="s">
@@ -23711,7 +23708,7 @@
       <c r="CQ28" s="1">
         <v>-10274</v>
       </c>
-      <c r="CR28" s="74">
+      <c r="CR28" s="72">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -23960,7 +23957,7 @@
       <c r="CC29" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CD29" s="1">
+      <c r="CD29" s="90">
         <v>-24757</v>
       </c>
       <c r="CE29" s="1" t="s">
@@ -24002,7 +23999,7 @@
       <c r="CQ29" s="1">
         <v>-22645</v>
       </c>
-      <c r="CR29" s="74">
+      <c r="CR29" s="72">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -24251,7 +24248,7 @@
       <c r="CC30" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CD30" s="1">
+      <c r="CD30" s="90">
         <v>-2871</v>
       </c>
       <c r="CE30" s="1" t="s">
@@ -24293,7 +24290,7 @@
       <c r="CQ30" s="1">
         <v>-2429</v>
       </c>
-      <c r="CR30" s="74">
+      <c r="CR30" s="72">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -24542,7 +24539,7 @@
       <c r="CC31" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CD31" s="1">
+      <c r="CD31" s="90">
         <v>-68650</v>
       </c>
       <c r="CE31" s="1" t="s">
@@ -24584,7 +24581,7 @@
       <c r="CQ31" s="1">
         <v>-57062</v>
       </c>
-      <c r="CR31" s="74">
+      <c r="CR31" s="72">
         <f t="shared" si="0"/>
         <v>-2</v>
       </c>
@@ -24833,7 +24830,7 @@
       <c r="CC32" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CD32" s="1">
+      <c r="CD32" s="90">
         <v>-276509</v>
       </c>
       <c r="CE32" s="1" t="s">
@@ -24875,7 +24872,7 @@
       <c r="CQ32" s="1">
         <v>-155964</v>
       </c>
-      <c r="CR32" s="74">
+      <c r="CR32" s="72">
         <f t="shared" si="0"/>
         <v>-5</v>
       </c>
@@ -25124,7 +25121,7 @@
       <c r="CC33" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CD33" s="1">
+      <c r="CD33" s="90">
         <v>-60098</v>
       </c>
       <c r="CE33" s="1" t="s">
@@ -25166,7 +25163,7 @@
       <c r="CQ33" s="1">
         <v>-40091</v>
       </c>
-      <c r="CR33" s="74">
+      <c r="CR33" s="72">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -25415,7 +25412,7 @@
       <c r="CC34" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CD34" s="1">
+      <c r="CD34" s="90">
         <v>0</v>
       </c>
       <c r="CE34" s="1" t="s">
@@ -25457,7 +25454,7 @@
       <c r="CQ34" s="1">
         <v>0</v>
       </c>
-      <c r="CR34" s="74">
+      <c r="CR34" s="72">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -25706,7 +25703,7 @@
       <c r="CC35" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CD35" s="1" t="s">
+      <c r="CD35" s="90" t="s">
         <v>196</v>
       </c>
       <c r="CE35" s="1" t="s">
@@ -25748,7 +25745,7 @@
       <c r="CQ35" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CR35" s="74">
+      <c r="CR35" s="72">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -25997,7 +25994,7 @@
       <c r="CC36" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CD36" s="1" t="s">
+      <c r="CD36" s="90" t="s">
         <v>196</v>
       </c>
       <c r="CE36" s="1" t="s">
@@ -26039,7 +26036,7 @@
       <c r="CQ36" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CR36" s="74">
+      <c r="CR36" s="72">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -26288,7 +26285,7 @@
       <c r="CC37" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CD37" s="1" t="s">
+      <c r="CD37" s="90" t="s">
         <v>196</v>
       </c>
       <c r="CE37" s="1" t="s">
@@ -26330,7 +26327,7 @@
       <c r="CQ37" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CR37" s="74">
+      <c r="CR37" s="72">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -26579,7 +26576,7 @@
       <c r="CC38" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CD38" s="1" t="s">
+      <c r="CD38" s="90" t="s">
         <v>196</v>
       </c>
       <c r="CE38" s="1" t="s">
@@ -26621,7 +26618,7 @@
       <c r="CQ38" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CR38" s="74">
+      <c r="CR38" s="72">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -26870,7 +26867,7 @@
       <c r="CC39" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CD39" s="1">
+      <c r="CD39" s="90">
         <v>-52205</v>
       </c>
       <c r="CE39" s="1" t="s">
@@ -26912,7 +26909,7 @@
       <c r="CQ39" s="1">
         <v>-19007</v>
       </c>
-      <c r="CR39" s="74">
+      <c r="CR39" s="72">
         <f t="shared" si="0"/>
         <v>-3</v>
       </c>
@@ -27161,7 +27158,7 @@
       <c r="CC40" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CD40" s="1" t="s">
+      <c r="CD40" s="90" t="s">
         <v>196</v>
       </c>
       <c r="CE40" s="1" t="s">
@@ -27203,7 +27200,7 @@
       <c r="CQ40" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CR40" s="74">
+      <c r="CR40" s="72">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -27452,7 +27449,7 @@
       <c r="CC41" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CD41" s="1" t="s">
+      <c r="CD41" s="90" t="s">
         <v>196</v>
       </c>
       <c r="CE41" s="1" t="s">
@@ -27494,7 +27491,7 @@
       <c r="CQ41" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CR41" s="74">
+      <c r="CR41" s="72">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -27743,7 +27740,7 @@
       <c r="CC42" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CD42" s="1" t="s">
+      <c r="CD42" s="90" t="s">
         <v>196</v>
       </c>
       <c r="CE42" s="1" t="s">
@@ -27785,7 +27782,7 @@
       <c r="CQ42" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CR42" s="74">
+      <c r="CR42" s="72">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -28034,7 +28031,7 @@
       <c r="CC43" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CD43" s="1" t="s">
+      <c r="CD43" s="90" t="s">
         <v>196</v>
       </c>
       <c r="CE43" s="1" t="s">
@@ -28076,7 +28073,7 @@
       <c r="CQ43" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CR43" s="74">
+      <c r="CR43" s="72">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -28325,7 +28322,7 @@
       <c r="CC44" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CD44" s="1" t="s">
+      <c r="CD44" s="90" t="s">
         <v>196</v>
       </c>
       <c r="CE44" s="1" t="s">
@@ -28367,7 +28364,7 @@
       <c r="CQ44" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CR44" s="74">
+      <c r="CR44" s="72">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -28616,7 +28613,7 @@
       <c r="CC45" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CD45" s="1">
+      <c r="CD45" s="90">
         <v>-40</v>
       </c>
       <c r="CE45" s="1" t="s">
@@ -28658,7 +28655,7 @@
       <c r="CQ45" s="1">
         <v>-38</v>
       </c>
-      <c r="CR45" s="74">
+      <c r="CR45" s="72">
         <f t="shared" si="0"/>
         <v>-4</v>
       </c>
@@ -28907,7 +28904,7 @@
       <c r="CC46" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CD46" s="1" t="s">
+      <c r="CD46" s="90" t="s">
         <v>196</v>
       </c>
       <c r="CE46" s="1" t="s">
@@ -28949,7 +28946,7 @@
       <c r="CQ46" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CR46" s="74">
+      <c r="CR46" s="72">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -29198,7 +29195,7 @@
       <c r="CC47" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CD47" s="1">
+      <c r="CD47" s="90">
         <v>-4673</v>
       </c>
       <c r="CE47" s="1" t="s">
@@ -29240,7 +29237,7 @@
       <c r="CQ47" s="1">
         <v>-2134</v>
       </c>
-      <c r="CR47" s="74">
+      <c r="CR47" s="72">
         <f t="shared" si="0"/>
         <v>-2</v>
       </c>
@@ -29489,7 +29486,7 @@
       <c r="CC48" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CD48" s="1">
+      <c r="CD48" s="90">
         <v>-10344</v>
       </c>
       <c r="CE48" s="1" t="s">
@@ -29531,7 +29528,7 @@
       <c r="CQ48" s="1">
         <v>-9470</v>
       </c>
-      <c r="CR48" s="74">
+      <c r="CR48" s="72">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -29780,7 +29777,7 @@
       <c r="CC49" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CD49" s="1">
+      <c r="CD49" s="90">
         <v>-167</v>
       </c>
       <c r="CE49" s="1" t="s">
@@ -29822,7 +29819,7 @@
       <c r="CQ49" s="1">
         <v>-87</v>
       </c>
-      <c r="CR49" s="74">
+      <c r="CR49" s="72">
         <f t="shared" si="0"/>
         <v>-5</v>
       </c>
@@ -30071,7 +30068,7 @@
       <c r="CC50" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CD50" s="1">
+      <c r="CD50" s="90">
         <v>-1309</v>
       </c>
       <c r="CE50" s="1" t="s">
@@ -30113,7 +30110,7 @@
       <c r="CQ50" s="1">
         <v>-976</v>
       </c>
-      <c r="CR50" s="74">
+      <c r="CR50" s="72">
         <f t="shared" si="0"/>
         <v>-3</v>
       </c>
@@ -30362,7 +30359,7 @@
       <c r="CC51" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CD51" s="1">
+      <c r="CD51" s="90">
         <v>-48</v>
       </c>
       <c r="CE51" s="1" t="s">
@@ -30404,7 +30401,7 @@
       <c r="CQ51" s="1">
         <v>-1</v>
       </c>
-      <c r="CR51" s="74">
+      <c r="CR51" s="72">
         <f t="shared" si="0"/>
         <v>-2</v>
       </c>
@@ -30653,7 +30650,7 @@
       <c r="CC52" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CD52" s="1">
+      <c r="CD52" s="90">
         <v>-60</v>
       </c>
       <c r="CE52" s="1" t="s">
@@ -30695,7 +30692,7 @@
       <c r="CQ52" s="1">
         <v>-51</v>
       </c>
-      <c r="CR52" s="74">
+      <c r="CR52" s="72">
         <f t="shared" si="0"/>
         <v>-4</v>
       </c>
@@ -30944,7 +30941,7 @@
       <c r="CC53" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CD53" s="1">
+      <c r="CD53" s="90">
         <v>-54234</v>
       </c>
       <c r="CE53" s="1" t="s">
@@ -30986,7 +30983,7 @@
       <c r="CQ53" s="1">
         <v>-52934</v>
       </c>
-      <c r="CR53" s="74">
+      <c r="CR53" s="72">
         <f t="shared" si="0"/>
         <v>-2</v>
       </c>
@@ -31235,7 +31232,7 @@
       <c r="CC54" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CD54" s="1" t="s">
+      <c r="CD54" s="90" t="s">
         <v>196</v>
       </c>
       <c r="CE54" s="1" t="s">
@@ -31277,7 +31274,7 @@
       <c r="CQ54" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CR54" s="74">
+      <c r="CR54" s="72">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -31526,7 +31523,7 @@
       <c r="CC55" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CD55" s="1" t="s">
+      <c r="CD55" s="90" t="s">
         <v>196</v>
       </c>
       <c r="CE55" s="1" t="s">
@@ -31568,7 +31565,7 @@
       <c r="CQ55" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CR55" s="74">
+      <c r="CR55" s="72">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -31817,7 +31814,7 @@
       <c r="CC56" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CD56" s="1" t="s">
+      <c r="CD56" s="90" t="s">
         <v>196</v>
       </c>
       <c r="CE56" s="1" t="s">
@@ -31859,7 +31856,7 @@
       <c r="CQ56" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CR56" s="74">
+      <c r="CR56" s="72">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -32108,7 +32105,7 @@
       <c r="CC57" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CD57" s="1" t="s">
+      <c r="CD57" s="90" t="s">
         <v>196</v>
       </c>
       <c r="CE57" s="1" t="s">
@@ -32150,7 +32147,7 @@
       <c r="CQ57" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CR57" s="74">
+      <c r="CR57" s="72">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -32399,7 +32396,7 @@
       <c r="CC58" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CD58" s="1">
+      <c r="CD58" s="90">
         <v>-4735</v>
       </c>
       <c r="CE58" s="1" t="s">
@@ -32441,7 +32438,7 @@
       <c r="CQ58" s="1">
         <v>-3027</v>
       </c>
-      <c r="CR58" s="74">
+      <c r="CR58" s="72">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -32690,7 +32687,7 @@
       <c r="CC59" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CD59" s="1">
+      <c r="CD59" s="90">
         <v>-34667</v>
       </c>
       <c r="CE59" s="1" t="s">
@@ -32732,7 +32729,7 @@
       <c r="CQ59" s="1">
         <v>-19523</v>
       </c>
-      <c r="CR59" s="74">
+      <c r="CR59" s="72">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -32981,7 +32978,7 @@
       <c r="CC60" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CD60" s="1">
+      <c r="CD60" s="90">
         <v>-107450</v>
       </c>
       <c r="CE60" s="1" t="s">
@@ -33023,7 +33020,7 @@
       <c r="CQ60" s="1">
         <v>-74613</v>
       </c>
-      <c r="CR60" s="74">
+      <c r="CR60" s="72">
         <f t="shared" si="0"/>
         <v>-2</v>
       </c>
@@ -33272,7 +33269,7 @@
       <c r="CC61" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CD61" s="1" t="s">
+      <c r="CD61" s="90" t="s">
         <v>196</v>
       </c>
       <c r="CE61" s="1" t="s">
@@ -33314,7 +33311,7 @@
       <c r="CQ61" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CR61" s="74">
+      <c r="CR61" s="72">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -33563,7 +33560,7 @@
       <c r="CC62" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CD62" s="1">
+      <c r="CD62" s="90">
         <v>-2397</v>
       </c>
       <c r="CE62" s="1" t="s">
@@ -33605,7 +33602,7 @@
       <c r="CQ62" s="1">
         <v>-2267</v>
       </c>
-      <c r="CR62" s="74">
+      <c r="CR62" s="72">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -33854,7 +33851,7 @@
       <c r="CC63" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CD63" s="1">
+      <c r="CD63" s="90">
         <v>-291</v>
       </c>
       <c r="CE63" s="1" t="s">
@@ -33896,7 +33893,7 @@
       <c r="CQ63" s="1">
         <v>-291</v>
       </c>
-      <c r="CR63" s="74">
+      <c r="CR63" s="72">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -34145,7 +34142,7 @@
       <c r="CC64" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CD64" s="1">
+      <c r="CD64" s="90">
         <v>-1661</v>
       </c>
       <c r="CE64" s="1" t="s">
@@ -34187,7 +34184,7 @@
       <c r="CQ64" s="1">
         <v>-831</v>
       </c>
-      <c r="CR64" s="74">
+      <c r="CR64" s="72">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -34436,7 +34433,7 @@
       <c r="CC65" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CD65" s="1" t="s">
+      <c r="CD65" s="90" t="s">
         <v>196</v>
       </c>
       <c r="CE65" s="1" t="s">
@@ -34478,7 +34475,7 @@
       <c r="CQ65" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CR65" s="74">
+      <c r="CR65" s="72">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -34727,7 +34724,7 @@
       <c r="CC66" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CD66" s="1">
+      <c r="CD66" s="90">
         <v>-5506</v>
       </c>
       <c r="CE66" s="1" t="s">
@@ -34769,7 +34766,7 @@
       <c r="CQ66" s="1">
         <v>0</v>
       </c>
-      <c r="CR66" s="74">
+      <c r="CR66" s="72">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -35018,7 +35015,7 @@
       <c r="CC67" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CD67" s="1" t="s">
+      <c r="CD67" s="90" t="s">
         <v>196</v>
       </c>
       <c r="CE67" s="1" t="s">
@@ -35060,7 +35057,7 @@
       <c r="CQ67" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CR67" s="74">
+      <c r="CR67" s="72">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -35309,7 +35306,7 @@
       <c r="CC68" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CD68" s="1" t="s">
+      <c r="CD68" s="90" t="s">
         <v>196</v>
       </c>
       <c r="CE68" s="1" t="s">
@@ -35351,7 +35348,7 @@
       <c r="CQ68" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CR68" s="74">
+      <c r="CR68" s="72">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -35600,7 +35597,7 @@
       <c r="CC69" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CD69" s="1">
+      <c r="CD69" s="90">
         <v>-754</v>
       </c>
       <c r="CE69" s="1" t="s">
@@ -35642,7 +35639,7 @@
       <c r="CQ69" s="1">
         <v>-180</v>
       </c>
-      <c r="CR69" s="74">
+      <c r="CR69" s="72">
         <f t="shared" si="0"/>
         <v>-6</v>
       </c>
@@ -35891,7 +35888,7 @@
       <c r="CC70" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CD70" s="1" t="s">
+      <c r="CD70" s="90" t="s">
         <v>196</v>
       </c>
       <c r="CE70" s="1" t="s">
@@ -35933,7 +35930,7 @@
       <c r="CQ70" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CR70" s="74">
+      <c r="CR70" s="72">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -36182,7 +36179,7 @@
       <c r="CC71" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CD71" s="1" t="s">
+      <c r="CD71" s="90" t="s">
         <v>196</v>
       </c>
       <c r="CE71" s="1" t="s">
@@ -36224,7 +36221,7 @@
       <c r="CQ71" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CR71" s="74">
+      <c r="CR71" s="72">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -36473,7 +36470,7 @@
       <c r="CC72" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CD72" s="1" t="s">
+      <c r="CD72" s="90" t="s">
         <v>196</v>
       </c>
       <c r="CE72" s="1" t="s">
@@ -36515,7 +36512,7 @@
       <c r="CQ72" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CR72" s="74">
+      <c r="CR72" s="72">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -36764,7 +36761,7 @@
       <c r="CC73" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CD73" s="1">
+      <c r="CD73" s="90">
         <v>-4896</v>
       </c>
       <c r="CE73" s="1" t="s">
@@ -36806,7 +36803,7 @@
       <c r="CQ73" s="1">
         <v>-3343</v>
       </c>
-      <c r="CR73" s="74">
+      <c r="CR73" s="72">
         <f t="shared" ref="CR73:CR81" si="1">SUM(C73:CQ73)</f>
         <v>3</v>
       </c>
@@ -37055,7 +37052,7 @@
       <c r="CC74" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CD74" s="1" t="s">
+      <c r="CD74" s="90" t="s">
         <v>196</v>
       </c>
       <c r="CE74" s="1" t="s">
@@ -37097,7 +37094,7 @@
       <c r="CQ74" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CR74" s="74">
+      <c r="CR74" s="72">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -37346,7 +37343,7 @@
       <c r="CC75" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CD75" s="1" t="s">
+      <c r="CD75" s="90" t="s">
         <v>196</v>
       </c>
       <c r="CE75" s="1" t="s">
@@ -37388,7 +37385,7 @@
       <c r="CQ75" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CR75" s="74">
+      <c r="CR75" s="72">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -37637,7 +37634,7 @@
       <c r="CC76" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CD76" s="1">
+      <c r="CD76" s="90">
         <v>-263</v>
       </c>
       <c r="CE76" s="1" t="s">
@@ -37679,7 +37676,7 @@
       <c r="CQ76" s="1">
         <v>-235</v>
       </c>
-      <c r="CR76" s="74">
+      <c r="CR76" s="72">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -37928,7 +37925,7 @@
       <c r="CC77" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CD77" s="1" t="s">
+      <c r="CD77" s="90" t="s">
         <v>196</v>
       </c>
       <c r="CE77" s="1" t="s">
@@ -37970,7 +37967,7 @@
       <c r="CQ77" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CR77" s="74">
+      <c r="CR77" s="72">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -38219,7 +38216,7 @@
       <c r="CC78" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CD78" s="1" t="s">
+      <c r="CD78" s="90" t="s">
         <v>196</v>
       </c>
       <c r="CE78" s="1" t="s">
@@ -38261,7 +38258,7 @@
       <c r="CQ78" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CR78" s="74">
+      <c r="CR78" s="72">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -38510,7 +38507,7 @@
       <c r="CC79" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CD79" s="1">
+      <c r="CD79" s="90">
         <v>-17452</v>
       </c>
       <c r="CE79" s="1" t="s">
@@ -38552,7 +38549,7 @@
       <c r="CQ79" s="1">
         <v>-7999</v>
       </c>
-      <c r="CR79" s="74">
+      <c r="CR79" s="72">
         <f t="shared" si="1"/>
         <v>-3</v>
       </c>
@@ -38801,7 +38798,7 @@
       <c r="CC80" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CD80" s="1">
+      <c r="CD80" s="90">
         <v>-279777</v>
       </c>
       <c r="CE80" s="1" t="s">
@@ -38843,385 +38840,385 @@
       <c r="CQ80" s="1">
         <v>-139252</v>
       </c>
-      <c r="CR80" s="74">
+      <c r="CR80" s="72">
         <f t="shared" si="1"/>
         <v>-2</v>
       </c>
     </row>
     <row r="81" spans="3:96" x14ac:dyDescent="0.4">
-      <c r="C81" s="74">
+      <c r="C81" s="72">
         <f>SUM(C8:C80)</f>
         <v>17082</v>
       </c>
-      <c r="D81" s="74">
+      <c r="D81" s="72">
         <f t="shared" ref="D81:BO81" si="2">SUM(D8:D80)</f>
         <v>913</v>
       </c>
-      <c r="E81" s="74">
+      <c r="E81" s="72">
         <f t="shared" si="2"/>
         <v>19087</v>
       </c>
-      <c r="F81" s="74">
+      <c r="F81" s="72">
         <f t="shared" si="2"/>
         <v>4875</v>
       </c>
-      <c r="G81" s="74">
+      <c r="G81" s="72">
         <f t="shared" si="2"/>
         <v>5202</v>
       </c>
-      <c r="H81" s="74">
+      <c r="H81" s="72">
         <f t="shared" si="2"/>
         <v>15803</v>
       </c>
-      <c r="I81" s="74">
+      <c r="I81" s="72">
         <f t="shared" si="2"/>
         <v>83115</v>
       </c>
-      <c r="J81" s="74">
+      <c r="J81" s="72">
         <f t="shared" si="2"/>
         <v>7950</v>
       </c>
-      <c r="K81" s="74">
+      <c r="K81" s="72">
         <f t="shared" si="2"/>
         <v>5978</v>
       </c>
-      <c r="L81" s="74">
+      <c r="L81" s="72">
         <f t="shared" si="2"/>
         <v>38676</v>
       </c>
-      <c r="M81" s="74">
+      <c r="M81" s="72">
         <f t="shared" si="2"/>
         <v>27357</v>
       </c>
-      <c r="N81" s="74">
+      <c r="N81" s="72">
         <f t="shared" si="2"/>
         <v>47774</v>
       </c>
-      <c r="O81" s="74">
+      <c r="O81" s="72">
         <f t="shared" si="2"/>
         <v>9186</v>
       </c>
-      <c r="P81" s="74">
+      <c r="P81" s="72">
         <f t="shared" si="2"/>
         <v>15251</v>
       </c>
-      <c r="Q81" s="74">
+      <c r="Q81" s="72">
         <f t="shared" si="2"/>
         <v>128310</v>
       </c>
-      <c r="R81" s="74">
+      <c r="R81" s="72">
         <f t="shared" si="2"/>
         <v>50000</v>
       </c>
-      <c r="S81" s="74">
+      <c r="S81" s="72">
         <f t="shared" si="2"/>
         <v>7999</v>
       </c>
-      <c r="T81" s="74">
+      <c r="T81" s="72">
         <f t="shared" si="2"/>
         <v>9813</v>
       </c>
-      <c r="U81" s="74">
+      <c r="U81" s="72">
         <f t="shared" si="2"/>
         <v>62291</v>
       </c>
-      <c r="V81" s="74">
+      <c r="V81" s="72">
         <f t="shared" si="2"/>
         <v>5208</v>
       </c>
-      <c r="W81" s="74">
+      <c r="W81" s="72">
         <f t="shared" si="2"/>
         <v>1322</v>
       </c>
-      <c r="X81" s="74">
+      <c r="X81" s="72">
         <f t="shared" si="2"/>
         <v>18640</v>
       </c>
-      <c r="Y81" s="74">
+      <c r="Y81" s="72">
         <f t="shared" si="2"/>
         <v>4610</v>
       </c>
-      <c r="Z81" s="74">
+      <c r="Z81" s="72">
         <f t="shared" si="2"/>
         <v>136422</v>
       </c>
-      <c r="AA81" s="74">
+      <c r="AA81" s="72">
         <f t="shared" si="2"/>
         <v>84713</v>
       </c>
-      <c r="AB81" s="74">
+      <c r="AB81" s="72">
         <f t="shared" si="2"/>
         <v>25722</v>
       </c>
-      <c r="AC81" s="74">
+      <c r="AC81" s="72">
         <f t="shared" si="2"/>
         <v>34940</v>
       </c>
-      <c r="AD81" s="74">
+      <c r="AD81" s="72">
         <f t="shared" si="2"/>
         <v>4993</v>
       </c>
-      <c r="AE81" s="74">
+      <c r="AE81" s="72">
         <f t="shared" si="2"/>
         <v>3570</v>
       </c>
-      <c r="AF81" s="74">
+      <c r="AF81" s="72">
         <f t="shared" si="2"/>
         <v>5090</v>
       </c>
-      <c r="AG81" s="74">
+      <c r="AG81" s="72">
         <f t="shared" si="2"/>
         <v>17170</v>
       </c>
-      <c r="AH81" s="74">
+      <c r="AH81" s="72">
         <f t="shared" si="2"/>
         <v>22348</v>
       </c>
-      <c r="AI81" s="74">
+      <c r="AI81" s="72">
         <f t="shared" si="2"/>
         <v>3133</v>
       </c>
-      <c r="AJ81" s="74">
+      <c r="AJ81" s="72">
         <f t="shared" si="2"/>
         <v>2950</v>
       </c>
-      <c r="AK81" s="74">
+      <c r="AK81" s="72">
         <f t="shared" si="2"/>
         <v>6706</v>
       </c>
-      <c r="AL81" s="74">
+      <c r="AL81" s="72">
         <f t="shared" si="2"/>
         <v>1271</v>
       </c>
-      <c r="AM81" s="74">
+      <c r="AM81" s="72">
         <f t="shared" si="2"/>
         <v>585</v>
       </c>
-      <c r="AN81" s="74">
+      <c r="AN81" s="72">
         <f t="shared" si="2"/>
         <v>10174</v>
       </c>
-      <c r="AO81" s="74">
+      <c r="AO81" s="72">
         <f t="shared" si="2"/>
         <v>3336</v>
       </c>
-      <c r="AP81" s="74">
+      <c r="AP81" s="72">
         <f t="shared" si="2"/>
         <v>8251</v>
       </c>
-      <c r="AQ81" s="74">
+      <c r="AQ81" s="72">
         <f t="shared" si="2"/>
         <v>3888</v>
       </c>
-      <c r="AR81" s="74">
+      <c r="AR81" s="72">
         <f t="shared" si="2"/>
         <v>43954</v>
       </c>
-      <c r="AS81" s="74">
+      <c r="AS81" s="72">
         <f t="shared" si="2"/>
         <v>10778</v>
       </c>
-      <c r="AT81" s="74">
+      <c r="AT81" s="72">
         <f t="shared" si="2"/>
         <v>10097</v>
       </c>
-      <c r="AU81" s="74">
+      <c r="AU81" s="72">
         <f t="shared" si="2"/>
         <v>41469</v>
       </c>
-      <c r="AV81" s="74">
+      <c r="AV81" s="72">
         <f t="shared" si="2"/>
         <v>51679</v>
       </c>
-      <c r="AW81" s="74">
+      <c r="AW81" s="72">
         <f t="shared" si="2"/>
         <v>2546</v>
       </c>
-      <c r="AX81" s="74">
+      <c r="AX81" s="72">
         <f t="shared" si="2"/>
         <v>3076</v>
       </c>
-      <c r="AY81" s="74">
+      <c r="AY81" s="72">
         <f t="shared" si="2"/>
         <v>23088</v>
       </c>
-      <c r="AZ81" s="74">
+      <c r="AZ81" s="72">
         <f t="shared" si="2"/>
         <v>4170</v>
       </c>
-      <c r="BA81" s="74">
+      <c r="BA81" s="72">
         <f t="shared" si="2"/>
         <v>2672</v>
       </c>
-      <c r="BB81" s="74">
+      <c r="BB81" s="72">
         <f t="shared" si="2"/>
         <v>10223</v>
       </c>
-      <c r="BC81" s="74">
+      <c r="BC81" s="72">
         <f t="shared" si="2"/>
         <v>43763</v>
       </c>
-      <c r="BD81" s="74">
+      <c r="BD81" s="72">
         <f t="shared" si="2"/>
         <v>13955</v>
       </c>
-      <c r="BE81" s="74">
+      <c r="BE81" s="72">
         <f t="shared" si="2"/>
         <v>23778</v>
       </c>
-      <c r="BF81" s="74">
+      <c r="BF81" s="72">
         <f t="shared" si="2"/>
         <v>5359</v>
       </c>
-      <c r="BG81" s="74">
+      <c r="BG81" s="72">
         <f t="shared" si="2"/>
         <v>4900</v>
       </c>
-      <c r="BH81" s="74">
+      <c r="BH81" s="72">
         <f t="shared" si="2"/>
         <v>33927</v>
       </c>
-      <c r="BI81" s="74">
+      <c r="BI81" s="72">
         <f t="shared" si="2"/>
         <v>19804</v>
       </c>
-      <c r="BJ81" s="74">
+      <c r="BJ81" s="72">
         <f t="shared" si="2"/>
         <v>6923</v>
       </c>
-      <c r="BK81" s="74">
+      <c r="BK81" s="72">
         <f t="shared" si="2"/>
         <v>5887</v>
       </c>
-      <c r="BL81" s="74">
+      <c r="BL81" s="72">
         <f t="shared" si="2"/>
         <v>1371</v>
       </c>
-      <c r="BM81" s="74">
+      <c r="BM81" s="72">
         <f t="shared" si="2"/>
         <v>3645</v>
       </c>
-      <c r="BN81" s="74">
+      <c r="BN81" s="72">
         <f t="shared" si="2"/>
         <v>6741</v>
       </c>
-      <c r="BO81" s="74">
+      <c r="BO81" s="72">
         <f t="shared" si="2"/>
         <v>21297</v>
       </c>
-      <c r="BP81" s="74">
+      <c r="BP81" s="72">
         <f t="shared" ref="BP81:CQ81" si="3">SUM(BP8:BP80)</f>
         <v>26597</v>
       </c>
-      <c r="BQ81" s="74">
+      <c r="BQ81" s="72">
         <f t="shared" si="3"/>
         <v>35699</v>
       </c>
-      <c r="BR81" s="74">
+      <c r="BR81" s="72">
         <f t="shared" si="3"/>
         <v>9725</v>
       </c>
-      <c r="BS81" s="74">
+      <c r="BS81" s="72">
         <f t="shared" si="3"/>
         <v>1951</v>
       </c>
-      <c r="BT81" s="74">
+      <c r="BT81" s="72">
         <f t="shared" si="3"/>
         <v>56888</v>
       </c>
-      <c r="BU81" s="74">
+      <c r="BU81" s="72">
         <f t="shared" si="3"/>
         <v>11149</v>
       </c>
-      <c r="BV81" s="74">
+      <c r="BV81" s="72">
         <f t="shared" si="3"/>
         <v>1498856</v>
       </c>
-      <c r="BW81" s="74">
+      <c r="BW81" s="72">
         <f t="shared" si="3"/>
         <v>889334</v>
       </c>
-      <c r="BX81" s="74">
+      <c r="BX81" s="72">
         <f t="shared" si="3"/>
         <v>392441</v>
       </c>
-      <c r="BY81" s="74">
+      <c r="BY81" s="72">
         <f t="shared" si="3"/>
         <v>48404</v>
       </c>
-      <c r="BZ81" s="74">
+      <c r="BZ81" s="72">
         <f t="shared" si="3"/>
         <v>3545</v>
       </c>
-      <c r="CA81" s="74">
+      <c r="CA81" s="72">
         <f t="shared" si="3"/>
         <v>553</v>
       </c>
-      <c r="CB81" s="74">
+      <c r="CB81" s="72">
         <f t="shared" si="3"/>
         <v>13206</v>
       </c>
-      <c r="CC81" s="74">
+      <c r="CC81" s="72">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="CD81" s="74">
+      <c r="CD81" s="91">
         <f t="shared" si="3"/>
         <v>-2889337</v>
       </c>
-      <c r="CE81" s="74">
+      <c r="CE81" s="72">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="CF81" s="74">
+      <c r="CF81" s="72">
         <f t="shared" si="3"/>
         <v>17439</v>
       </c>
-      <c r="CG81" s="74">
+      <c r="CG81" s="72">
         <f t="shared" si="3"/>
         <v>2229</v>
       </c>
-      <c r="CH81" s="74">
+      <c r="CH81" s="72">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="CI81" s="74">
+      <c r="CI81" s="72">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="CJ81" s="74">
+      <c r="CJ81" s="72">
         <f t="shared" si="3"/>
         <v>3585</v>
       </c>
-      <c r="CK81" s="74">
+      <c r="CK81" s="72">
         <f t="shared" si="3"/>
         <v>2943</v>
       </c>
-      <c r="CL81" s="74">
+      <c r="CL81" s="72">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="CM81" s="74">
+      <c r="CM81" s="72">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="CN81" s="74">
+      <c r="CN81" s="72">
         <f t="shared" si="3"/>
         <v>16455</v>
       </c>
-      <c r="CO81" s="74">
+      <c r="CO81" s="72">
         <f t="shared" si="3"/>
         <v>345</v>
       </c>
-      <c r="CP81" s="74">
+      <c r="CP81" s="72">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="CQ81" s="74">
+      <c r="CQ81" s="72">
         <f t="shared" si="3"/>
         <v>-1498856</v>
       </c>
-      <c r="CR81" s="74">
+      <c r="CR81" s="72">
         <f t="shared" si="1"/>
         <v>-43</v>
       </c>
@@ -39233,855 +39230,1981 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E091D7-6855-4AC9-9F75-CF3210603847}">
+  <dimension ref="A1:I75"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>898</v>
+      </c>
+      <c r="B1" t="s">
+        <v>899</v>
+      </c>
+      <c r="C1" t="s">
+        <v>900</v>
+      </c>
+      <c r="E1" s="69" t="s">
+        <v>903</v>
+      </c>
+      <c r="F1" t="s">
+        <v>901</v>
+      </c>
+      <c r="H1" t="s">
+        <v>904</v>
+      </c>
+      <c r="I1" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1">
+        <v>-43306</v>
+      </c>
+      <c r="C2" s="72">
+        <f>IF(TYPE(B2)=1,-B2,0)</f>
+        <v>43306</v>
+      </c>
+      <c r="E2" s="70">
+        <v>11</v>
+      </c>
+      <c r="F2" s="72">
+        <f>SUM(C2:C3)</f>
+        <v>61301</v>
+      </c>
+      <c r="H2" t="s">
+        <v>878</v>
+      </c>
+      <c r="I2" s="72">
+        <f>F2</f>
+        <v>61301</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
+        <v>-17995</v>
+      </c>
+      <c r="C3" s="72">
+        <f t="shared" ref="C3:C66" si="0">IF(TYPE(B3)=1,-B3,0)</f>
+        <v>17995</v>
+      </c>
+      <c r="E3" s="70">
+        <v>21</v>
+      </c>
+      <c r="F3" s="72">
+        <f>SUM(C4:C6)</f>
+        <v>145240</v>
+      </c>
+      <c r="H3" t="s">
+        <v>879</v>
+      </c>
+      <c r="I3" s="72">
+        <f>SUM(F3:F5)</f>
+        <v>147324</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1">
+        <v>-138764</v>
+      </c>
+      <c r="C4" s="72">
+        <f t="shared" si="0"/>
+        <v>138764</v>
+      </c>
+      <c r="E4" s="46">
+        <v>22</v>
+      </c>
+      <c r="F4" s="72">
+        <f>C7</f>
+        <v>2084</v>
+      </c>
+      <c r="H4" t="s">
+        <v>880</v>
+      </c>
+      <c r="I4" s="72">
+        <f>SUM(F6:F21)</f>
+        <v>2383220</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1">
+        <v>-5773</v>
+      </c>
+      <c r="C5" s="72">
+        <f t="shared" si="0"/>
+        <v>5773</v>
+      </c>
+      <c r="E5" s="70">
+        <v>23</v>
+      </c>
+      <c r="F5" s="72">
+        <f>C8</f>
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>194</v>
+      </c>
+      <c r="I5" s="72">
+        <f>SUM(F22:F24)</f>
+        <v>297492</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1">
+        <v>-703</v>
+      </c>
+      <c r="C6" s="72">
+        <f t="shared" si="0"/>
+        <v>703</v>
+      </c>
+      <c r="E6" s="70" t="s">
+        <v>325</v>
+      </c>
+      <c r="F6" s="72">
+        <f>SUM(C9:C19)</f>
+        <v>1377083</v>
+      </c>
+      <c r="H6" t="s">
+        <v>895</v>
+      </c>
+      <c r="I6" s="72">
+        <f>SUM(I2:I5)</f>
+        <v>2889337</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-2084</v>
+      </c>
+      <c r="C7" s="72">
+        <f t="shared" si="0"/>
+        <v>2084</v>
+      </c>
+      <c r="E7" s="70" t="s">
+        <v>533</v>
+      </c>
+      <c r="F7" s="72">
+        <f>SUM(C20:C27)</f>
+        <v>720700</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C8" s="72">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="70">
+        <v>42</v>
+      </c>
+      <c r="F8" s="72">
+        <f>SUM(C28)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1">
+        <v>-19851</v>
+      </c>
+      <c r="C9" s="72">
+        <f t="shared" si="0"/>
+        <v>19851</v>
+      </c>
+      <c r="E9" s="70" t="s">
+        <v>654</v>
+      </c>
+      <c r="F9" s="72">
+        <f>SUM(C29:C32)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-27834</v>
+      </c>
+      <c r="C10" s="72">
+        <f t="shared" si="0"/>
+        <v>27834</v>
+      </c>
+      <c r="E10" s="70" t="s">
+        <v>665</v>
+      </c>
+      <c r="F10" s="72">
+        <f>SUM(C33:C40)</f>
+        <v>52245</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1">
+        <v>-78029</v>
+      </c>
+      <c r="C11" s="72">
+        <f t="shared" si="0"/>
+        <v>78029</v>
+      </c>
+      <c r="E11" s="70">
+        <v>51</v>
+      </c>
+      <c r="F11" s="72">
+        <f>SUM(C41:C44)</f>
+        <v>16493</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1">
+        <v>-73364</v>
+      </c>
+      <c r="C12" s="72">
+        <f t="shared" si="0"/>
+        <v>73364</v>
+      </c>
+      <c r="E12" s="70">
+        <v>52</v>
+      </c>
+      <c r="F12" s="72">
+        <f>SUM(C45:C48)</f>
+        <v>54342</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1">
+        <v>-187227</v>
+      </c>
+      <c r="C13" s="72">
+        <f t="shared" si="0"/>
+        <v>187227</v>
+      </c>
+      <c r="E13" s="70">
+        <v>53</v>
+      </c>
+      <c r="F13" s="72">
+        <f>SUM(C49:C51)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1">
+        <v>-326734</v>
+      </c>
+      <c r="C14" s="72">
+        <f t="shared" si="0"/>
+        <v>326734</v>
+      </c>
+      <c r="E14" s="70">
+        <v>54</v>
+      </c>
+      <c r="F14" s="72">
+        <f>SUM(C52:C54)</f>
+        <v>146852</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1">
+        <v>-112702</v>
+      </c>
+      <c r="C15" s="72">
+        <f t="shared" si="0"/>
+        <v>112702</v>
+      </c>
+      <c r="E15" s="70">
+        <v>55</v>
+      </c>
+      <c r="F15" s="72">
+        <f>SUM(C55)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1">
+        <v>-343742</v>
+      </c>
+      <c r="C16" s="72">
+        <f t="shared" si="0"/>
+        <v>343742</v>
+      </c>
+      <c r="E16" s="70">
+        <v>56</v>
+      </c>
+      <c r="F16" s="72">
+        <f>SUM(C56:C57)</f>
+        <v>2688</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1">
+        <v>-57267</v>
+      </c>
+      <c r="C17" s="72">
+        <f t="shared" si="0"/>
+        <v>57267</v>
+      </c>
+      <c r="E17" s="70">
+        <v>61</v>
+      </c>
+      <c r="F17" s="72">
+        <f>SUM(C58)</f>
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="1">
+        <v>-47217</v>
+      </c>
+      <c r="C18" s="72">
+        <f t="shared" si="0"/>
+        <v>47217</v>
+      </c>
+      <c r="E18" s="70">
+        <v>62</v>
+      </c>
+      <c r="F18" s="72">
+        <f>SUM(C59:C62)</f>
+        <v>5506</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="1">
+        <v>-103116</v>
+      </c>
+      <c r="C19" s="72">
+        <f t="shared" si="0"/>
+        <v>103116</v>
+      </c>
+      <c r="E19" s="70">
+        <v>71</v>
+      </c>
+      <c r="F19" s="72">
+        <f>SUM(C63:C64)</f>
+        <v>754</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="1">
+        <v>-102316</v>
+      </c>
+      <c r="C20" s="72">
+        <f t="shared" si="0"/>
+        <v>102316</v>
+      </c>
+      <c r="E20" s="70">
+        <v>72</v>
+      </c>
+      <c r="F20" s="72">
+        <f>SUM(C65:C66)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="1">
+        <v>-34955</v>
+      </c>
+      <c r="C21" s="72">
+        <f t="shared" si="0"/>
+        <v>34955</v>
+      </c>
+      <c r="E21" s="70">
+        <v>81</v>
+      </c>
+      <c r="F21" s="72">
+        <f>C67</f>
+        <v>4896</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="1">
+        <v>-150544</v>
+      </c>
+      <c r="C22" s="72">
+        <f t="shared" si="0"/>
+        <v>150544</v>
+      </c>
+      <c r="E22" s="70" t="s">
+        <v>834</v>
+      </c>
+      <c r="F22" s="72">
+        <f>SUM(C68:C72)</f>
+        <v>263</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="1">
+        <v>-24757</v>
+      </c>
+      <c r="C23" s="72">
+        <f t="shared" si="0"/>
+        <v>24757</v>
+      </c>
+      <c r="E23" s="70" t="s">
+        <v>192</v>
+      </c>
+      <c r="F23" s="72">
+        <f>SUM(C73)</f>
+        <v>17452</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="1">
+        <v>-2871</v>
+      </c>
+      <c r="C24" s="72">
+        <f t="shared" si="0"/>
+        <v>2871</v>
+      </c>
+      <c r="E24" s="70" t="s">
+        <v>194</v>
+      </c>
+      <c r="F24" s="72">
+        <f>SUM(C74)</f>
+        <v>279777</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="1">
+        <v>-68650</v>
+      </c>
+      <c r="C25" s="72">
+        <f t="shared" si="0"/>
+        <v>68650</v>
+      </c>
+      <c r="E25" s="92" t="s">
+        <v>902</v>
+      </c>
+      <c r="F25" s="72">
+        <f>SUM(F2:F24)</f>
+        <v>2889337</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="1">
+        <v>-276509</v>
+      </c>
+      <c r="C26" s="72">
+        <f t="shared" si="0"/>
+        <v>276509</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="1">
+        <v>-60098</v>
+      </c>
+      <c r="C27" s="72">
+        <f t="shared" si="0"/>
+        <v>60098</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0</v>
+      </c>
+      <c r="C28" s="72">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C29" s="72">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C30" s="72">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C31" s="72">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C32" s="72">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="1">
+        <v>-52205</v>
+      </c>
+      <c r="C33" s="72">
+        <f t="shared" si="0"/>
+        <v>52205</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C34" s="72">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C35" s="72">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C36" s="72">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C37" s="72">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C38" s="72">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="1">
+        <v>-40</v>
+      </c>
+      <c r="C39" s="72">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C40" s="72">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="1">
+        <v>-4673</v>
+      </c>
+      <c r="C41" s="72">
+        <f t="shared" si="0"/>
+        <v>4673</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="1">
+        <v>-10344</v>
+      </c>
+      <c r="C42" s="72">
+        <f t="shared" si="0"/>
+        <v>10344</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" s="1">
+        <v>-167</v>
+      </c>
+      <c r="C43" s="72">
+        <f t="shared" si="0"/>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="1">
+        <v>-1309</v>
+      </c>
+      <c r="C44" s="72">
+        <f t="shared" si="0"/>
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" s="1">
+        <v>-48</v>
+      </c>
+      <c r="C45" s="72">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" s="1">
+        <v>-60</v>
+      </c>
+      <c r="C46" s="72">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="1">
+        <v>-54234</v>
+      </c>
+      <c r="C47" s="72">
+        <f t="shared" si="0"/>
+        <v>54234</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C48" s="72">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C49" s="72">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C50" s="72">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C51" s="72">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" s="1">
+        <v>-4735</v>
+      </c>
+      <c r="C52" s="72">
+        <f t="shared" si="0"/>
+        <v>4735</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" s="1">
+        <v>-34667</v>
+      </c>
+      <c r="C53" s="72">
+        <f t="shared" si="0"/>
+        <v>34667</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" s="1">
+        <v>-107450</v>
+      </c>
+      <c r="C54" s="72">
+        <f t="shared" si="0"/>
+        <v>107450</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C55" s="72">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56" s="1">
+        <v>-2397</v>
+      </c>
+      <c r="C56" s="72">
+        <f t="shared" si="0"/>
+        <v>2397</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" s="1">
+        <v>-291</v>
+      </c>
+      <c r="C57" s="72">
+        <f t="shared" si="0"/>
+        <v>291</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" s="1">
+        <v>-1661</v>
+      </c>
+      <c r="C58" s="72">
+        <f t="shared" si="0"/>
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C59" s="72">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A60" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60" s="1">
+        <v>-5506</v>
+      </c>
+      <c r="C60" s="72">
+        <f t="shared" si="0"/>
+        <v>5506</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A61" t="s">
+        <v>63</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C61" s="72">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A62" t="s">
+        <v>64</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C62" s="72">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A63" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63" s="1">
+        <v>-754</v>
+      </c>
+      <c r="C63" s="72">
+        <f t="shared" si="0"/>
+        <v>754</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A64" t="s">
+        <v>66</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C64" s="72">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A65" t="s">
+        <v>67</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C65" s="72">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A66" t="s">
+        <v>68</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C66" s="72">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A67" t="s">
+        <v>69</v>
+      </c>
+      <c r="B67" s="1">
+        <v>-4896</v>
+      </c>
+      <c r="C67" s="72">
+        <f t="shared" ref="C67:C74" si="1">IF(TYPE(B67)=1,-B67,0)</f>
+        <v>4896</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A68" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C68" s="72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A69" t="s">
+        <v>71</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C69" s="72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A70" t="s">
+        <v>72</v>
+      </c>
+      <c r="B70" s="1">
+        <v>-263</v>
+      </c>
+      <c r="C70" s="72">
+        <f t="shared" si="1"/>
+        <v>263</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A71" t="s">
+        <v>73</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C71" s="72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A72" t="s">
+        <v>74</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C72" s="72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A73" t="s">
+        <v>192</v>
+      </c>
+      <c r="B73" s="1">
+        <v>-17452</v>
+      </c>
+      <c r="C73" s="72">
+        <f t="shared" si="1"/>
+        <v>17452</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A74" t="s">
+        <v>194</v>
+      </c>
+      <c r="B74" s="1">
+        <v>-279777</v>
+      </c>
+      <c r="C74" s="72">
+        <f t="shared" si="1"/>
+        <v>279777</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A75" t="s">
+        <v>895</v>
+      </c>
+      <c r="C75" s="72">
+        <f>SUM(C2:C74)</f>
+        <v>2889337</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E8B661F-B762-4D87-9F3F-5F319D598DC2}">
   <dimension ref="A1:F94"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.07421875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="18.07421875" style="76"/>
+    <col min="2" max="2" width="18.07421875" style="74"/>
     <col min="5" max="5" width="11.61328125" customWidth="1"/>
     <col min="6" max="6" width="10.765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>885</v>
-      </c>
-      <c r="B1" s="76" t="s">
         <v>884</v>
       </c>
+      <c r="B1" s="74" t="s">
+        <v>883</v>
+      </c>
       <c r="D1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="E1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="F1" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A2" s="67" t="s">
         <v>878</v>
       </c>
-      <c r="B2" s="78">
+      <c r="B2" s="76">
         <f>B3+B4</f>
         <v>17995</v>
       </c>
       <c r="D2" t="s">
-        <v>895</v>
-      </c>
-      <c r="E2" s="76">
+        <v>894</v>
+      </c>
+      <c r="E2" s="74">
         <f>B2</f>
         <v>17995</v>
       </c>
-      <c r="F2" s="75">
+      <c r="F2" s="73">
         <f>E2/1000</f>
         <v>17.995000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="76">
+      <c r="B3" s="74">
         <v>17082</v>
       </c>
       <c r="D3" t="s">
         <v>879</v>
       </c>
-      <c r="E3" s="76">
+      <c r="E3" s="74">
         <f>SUM(B5, B9, B11, B13)</f>
         <v>815304</v>
       </c>
-      <c r="F3" s="75">
+      <c r="F3" s="73">
         <f t="shared" ref="F3:F6" si="0">E3/1000</f>
         <v>815.30399999999997</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="76">
+      <c r="B4" s="74">
         <v>913</v>
       </c>
       <c r="D4" t="s">
         <v>880</v>
       </c>
-      <c r="E4" s="76">
+      <c r="E4" s="74">
         <f>SUM(B35, B37, B42, B51, B56, B61, B65, B69, B71, B74, B76, B81, B84, B87)</f>
         <v>550104</v>
       </c>
-      <c r="F4" s="75">
+      <c r="F4" s="73">
         <f t="shared" si="0"/>
         <v>550.10400000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A5" s="79" t="s">
-        <v>886</v>
-      </c>
-      <c r="B5" s="78">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="77" t="s">
+        <v>885</v>
+      </c>
+      <c r="B5" s="76">
         <f>SUM(B6:B8)</f>
         <v>29164</v>
       </c>
       <c r="D5" t="s">
-        <v>897</v>
-      </c>
-      <c r="E5" s="76">
+        <v>896</v>
+      </c>
+      <c r="E5" s="74">
         <f>B89</f>
         <v>115412</v>
       </c>
-      <c r="F5" s="75">
+      <c r="F5" s="73">
         <f t="shared" si="0"/>
         <v>115.41200000000001</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6" s="77" t="s">
+      <c r="A6" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="76">
+      <c r="B6" s="74">
         <v>19087</v>
       </c>
       <c r="D6" t="s">
-        <v>896</v>
-      </c>
-      <c r="E6" s="76">
+        <v>895</v>
+      </c>
+      <c r="E6" s="74">
         <f>SUM(E2:E5)</f>
         <v>1498815</v>
       </c>
-      <c r="F6" s="75">
+      <c r="F6" s="73">
         <f t="shared" si="0"/>
         <v>1498.8150000000001</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7" s="77" t="s">
+      <c r="A7" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="76">
+      <c r="B7" s="74">
         <v>4875</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8" s="77" t="s">
+      <c r="A8" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="76">
+      <c r="B8" s="74">
         <v>5202</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A9" s="79" t="s">
-        <v>887</v>
-      </c>
-      <c r="B9" s="78">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="77" t="s">
+        <v>886</v>
+      </c>
+      <c r="B9" s="76">
         <f>B10</f>
         <v>15803</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A10" s="77" t="s">
+      <c r="A10" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="76">
+      <c r="B10" s="74">
         <v>15803</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A11" s="79" t="s">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="77" t="s">
         <v>105</v>
       </c>
-      <c r="B11" s="78">
+      <c r="B11" s="76">
         <f>B12</f>
         <v>83115</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A12" s="77" t="s">
+      <c r="A12" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="76">
+      <c r="B12" s="74">
         <v>83115</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A13" s="79" t="s">
-        <v>889</v>
-      </c>
-      <c r="B13" s="78">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="77" t="s">
+        <v>888</v>
+      </c>
+      <c r="B13" s="76">
         <f>B14+B26</f>
         <v>687222</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A14" s="80" t="s">
-        <v>888</v>
-      </c>
-      <c r="B14" s="78">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="78" t="s">
+        <v>887</v>
+      </c>
+      <c r="B14" s="76">
         <f>SUM(B15:B25)</f>
         <v>348294</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A15" s="77" t="s">
+      <c r="A15" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="76">
+      <c r="B15" s="74">
         <v>7950</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A16" s="77" t="s">
+      <c r="A16" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="76">
+      <c r="B16" s="74">
         <v>5978</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A17" s="77" t="s">
+      <c r="A17" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="76">
+      <c r="B17" s="74">
         <v>38676</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A18" s="77" t="s">
+      <c r="A18" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="76">
+      <c r="B18" s="74">
         <v>27357</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A19" s="77" t="s">
+      <c r="A19" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="76">
+      <c r="B19" s="74">
         <v>47774</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A20" s="77" t="s">
+      <c r="A20" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="76">
+      <c r="B20" s="74">
         <v>9186</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A21" s="77" t="s">
+      <c r="A21" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="76">
+      <c r="B21" s="74">
         <v>15251</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A22" s="77" t="s">
+      <c r="A22" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="76">
+      <c r="B22" s="74">
         <v>128310</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A23" s="77" t="s">
+      <c r="A23" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="76">
+      <c r="B23" s="74">
         <v>50000</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A24" s="77" t="s">
+      <c r="A24" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="76">
+      <c r="B24" s="74">
         <v>7999</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A25" s="77" t="s">
+      <c r="A25" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="76">
+      <c r="B25" s="74">
         <v>9813</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A26" s="80" t="s">
-        <v>890</v>
-      </c>
-      <c r="B26" s="78">
+    <row r="26" spans="1:2" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="78" t="s">
+        <v>889</v>
+      </c>
+      <c r="B26" s="76">
         <f>SUM(B27:B34)</f>
         <v>338928</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A27" s="77" t="s">
+      <c r="A27" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="76">
+      <c r="B27" s="74">
         <v>62291</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A28" s="77" t="s">
+      <c r="A28" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="76">
+      <c r="B28" s="74">
         <v>5208</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A29" s="77" t="s">
+      <c r="A29" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="76">
+      <c r="B29" s="74">
         <v>1322</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A30" s="77" t="s">
+      <c r="A30" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="76">
+      <c r="B30" s="74">
         <v>18640</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A31" s="77" t="s">
+      <c r="A31" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="76">
+      <c r="B31" s="74">
         <v>4610</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A32" s="77" t="s">
+      <c r="A32" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="76">
+      <c r="B32" s="74">
         <v>136422</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A33" s="77" t="s">
+      <c r="A33" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="76">
+      <c r="B33" s="74">
         <v>84713</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A34" s="77" t="s">
+      <c r="A34" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="76">
+      <c r="B34" s="74">
         <v>25722</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A35" s="79" t="s">
-        <v>892</v>
-      </c>
-      <c r="B35" s="78">
+    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="77" t="s">
+        <v>891</v>
+      </c>
+      <c r="B35" s="76">
         <f>B36</f>
         <v>34940</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A36" s="77" t="s">
+      <c r="A36" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="76">
+      <c r="B36" s="74">
         <v>34940</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A37" s="79" t="s">
-        <v>891</v>
-      </c>
-      <c r="B37" s="78">
+    <row r="37" spans="1:2" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="77" t="s">
+        <v>890</v>
+      </c>
+      <c r="B37" s="76">
         <f>SUM(B38:B41)</f>
         <v>30823</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A38" s="77" t="s">
+      <c r="A38" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="B38" s="76">
+      <c r="B38" s="74">
         <v>4993</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A39" s="77" t="s">
+      <c r="A39" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="B39" s="76">
+      <c r="B39" s="74">
         <v>3570</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A40" s="77" t="s">
+      <c r="A40" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="B40" s="76">
+      <c r="B40" s="74">
         <v>5090</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A41" s="77" t="s">
+      <c r="A41" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="B41" s="76">
+      <c r="B41" s="74">
         <v>17170</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A42" s="79" t="s">
+    <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="77" t="s">
         <v>666</v>
       </c>
-      <c r="B42" s="76">
+      <c r="B42" s="74">
         <f>SUM(B43:B50)</f>
         <v>50503</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A43" s="77" t="s">
+      <c r="A43" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="B43" s="76">
+      <c r="B43" s="74">
         <v>22348</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A44" s="77" t="s">
+      <c r="A44" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="B44" s="76">
+      <c r="B44" s="74">
         <v>3133</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A45" s="77" t="s">
+      <c r="A45" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="B45" s="76">
+      <c r="B45" s="74">
         <v>2950</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A46" s="77" t="s">
+      <c r="A46" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="B46" s="76">
+      <c r="B46" s="74">
         <v>6706</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A47" s="77" t="s">
+      <c r="A47" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="B47" s="76">
+      <c r="B47" s="74">
         <v>1271</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A48" s="77" t="s">
+      <c r="A48" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="B48" s="76">
+      <c r="B48" s="74">
         <v>585</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A49" s="77" t="s">
+      <c r="A49" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="B49" s="76">
+      <c r="B49" s="74">
         <v>10174</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A50" s="77" t="s">
+      <c r="A50" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="B50" s="76">
+      <c r="B50" s="74">
         <v>3336</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A51" s="79" t="s">
-        <v>893</v>
-      </c>
-      <c r="B51" s="78">
+    <row r="51" spans="1:2" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="77" t="s">
+        <v>892</v>
+      </c>
+      <c r="B51" s="76">
         <f>SUM(B52:B55)</f>
         <v>66871</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A52" s="77" t="s">
+      <c r="A52" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="B52" s="76">
+      <c r="B52" s="74">
         <v>8251</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A53" s="77" t="s">
+      <c r="A53" s="75" t="s">
         <v>44</v>
       </c>
-      <c r="B53" s="76">
+      <c r="B53" s="74">
         <v>3888</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A54" s="77" t="s">
+      <c r="A54" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="B54" s="76">
+      <c r="B54" s="74">
         <v>43954</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A55" s="77" t="s">
+      <c r="A55" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="B55" s="76">
+      <c r="B55" s="74">
         <v>10778</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:2" hidden="1" x14ac:dyDescent="0.4">
       <c r="A56" s="56" t="s">
         <v>702</v>
       </c>
-      <c r="B56" s="78">
+      <c r="B56" s="76">
         <f>SUM(B57:B60)</f>
         <v>105791</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A57" s="77" t="s">
+      <c r="A57" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="B57" s="76">
+      <c r="B57" s="74">
         <v>10097</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A58" s="77" t="s">
+      <c r="A58" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="B58" s="76">
+      <c r="B58" s="74">
         <v>41469</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A59" s="77" t="s">
+      <c r="A59" s="75" t="s">
         <v>49</v>
       </c>
-      <c r="B59" s="76">
+      <c r="B59" s="74">
         <v>51679</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A60" s="77" t="s">
+      <c r="A60" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="B60" s="76">
+      <c r="B60" s="74">
         <v>2546</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:2" hidden="1" x14ac:dyDescent="0.4">
       <c r="A61" s="56" t="s">
         <v>720</v>
       </c>
-      <c r="B61" s="78">
+      <c r="B61" s="76">
         <f>SUM(B62:B64)</f>
         <v>30334</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A62" s="77" t="s">
+      <c r="A62" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="B62" s="76">
+      <c r="B62" s="74">
         <v>3076</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A63" s="77" t="s">
+      <c r="A63" s="75" t="s">
         <v>52</v>
       </c>
-      <c r="B63" s="76">
+      <c r="B63" s="74">
         <v>23088</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A64" s="77" t="s">
+      <c r="A64" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="B64" s="76">
+      <c r="B64" s="74">
         <v>4170</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:2" hidden="1" x14ac:dyDescent="0.4">
       <c r="A65" s="46" t="s">
         <v>734</v>
       </c>
-      <c r="B65" s="78">
+      <c r="B65" s="76">
         <f>SUM(B66:B68)</f>
         <v>56658</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A66" s="77" t="s">
+      <c r="A66" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="B66" s="76">
+      <c r="B66" s="74">
         <v>2672</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A67" s="77" t="s">
+      <c r="A67" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="B67" s="76">
+      <c r="B67" s="74">
         <v>10223</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A68" s="77" t="s">
+      <c r="A68" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="B68" s="76">
+      <c r="B68" s="74">
         <v>43763</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:2" hidden="1" x14ac:dyDescent="0.4">
       <c r="A69" s="46" t="s">
         <v>757</v>
       </c>
-      <c r="B69" s="78">
+      <c r="B69" s="76">
         <f>B70</f>
         <v>13955</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A70" s="77" t="s">
+      <c r="A70" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="B70" s="76">
+      <c r="B70" s="74">
         <v>13955</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:2" hidden="1" x14ac:dyDescent="0.4">
       <c r="A71" s="46" t="s">
         <v>758</v>
       </c>
-      <c r="B71" s="78">
+      <c r="B71" s="76">
         <f>SUM(B72:B73)</f>
         <v>29137</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A72" s="77" t="s">
+      <c r="A72" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="B72" s="76">
+      <c r="B72" s="74">
         <v>23778</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A73" s="77" t="s">
+      <c r="A73" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="B73" s="76">
+      <c r="B73" s="74">
         <v>5359</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:2" hidden="1" x14ac:dyDescent="0.4">
       <c r="A74" s="56" t="s">
         <v>769</v>
       </c>
-      <c r="B74" s="78">
+      <c r="B74" s="76">
         <f>B75</f>
         <v>4900</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A75" s="77" t="s">
+      <c r="A75" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="B75" s="76">
+      <c r="B75" s="74">
         <v>4900</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:2" hidden="1" x14ac:dyDescent="0.4">
       <c r="A76" s="46" t="s">
         <v>777</v>
       </c>
-      <c r="B76" s="78">
+      <c r="B76" s="76">
         <f>SUM(B77:B80)</f>
         <v>66541</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A77" s="77" t="s">
+      <c r="A77" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="B77" s="76">
+      <c r="B77" s="74">
         <v>33927</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A78" s="77" t="s">
+      <c r="A78" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="B78" s="76">
+      <c r="B78" s="74">
         <v>19804</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A79" s="77" t="s">
+      <c r="A79" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="B79" s="76">
+      <c r="B79" s="74">
         <v>6923</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A80" s="77" t="s">
+      <c r="A80" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="B80" s="76">
+      <c r="B80" s="74">
         <v>5887</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:2" hidden="1" x14ac:dyDescent="0.4">
       <c r="A81" s="46" t="s">
         <v>797</v>
       </c>
-      <c r="B81" s="78">
+      <c r="B81" s="76">
         <f>SUM(B82:B83)</f>
         <v>5016</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A82" s="77" t="s">
+      <c r="A82" s="75" t="s">
         <v>65</v>
       </c>
-      <c r="B82" s="76">
+      <c r="B82" s="74">
         <v>1371</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A83" s="77" t="s">
+      <c r="A83" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="B83" s="76">
+      <c r="B83" s="74">
         <v>3645</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:2" hidden="1" x14ac:dyDescent="0.4">
       <c r="A84" s="46" t="s">
         <v>808</v>
       </c>
-      <c r="B84" s="78">
+      <c r="B84" s="76">
         <f>SUM(B85:B86)</f>
         <v>28038</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A85" s="77" t="s">
+      <c r="A85" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="B85" s="76">
+      <c r="B85" s="74">
         <v>6741</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A86" s="77" t="s">
+      <c r="A86" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="B86" s="76">
+      <c r="B86" s="74">
         <v>21297</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:2" hidden="1" x14ac:dyDescent="0.4">
       <c r="A87" s="46" t="s">
         <v>814</v>
       </c>
-      <c r="B87" s="78">
+      <c r="B87" s="76">
         <f>B88</f>
         <v>26597</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A88" s="77" t="s">
+      <c r="A88" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="B88" s="76">
+      <c r="B88" s="74">
         <v>26597</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:2" hidden="1" x14ac:dyDescent="0.4">
       <c r="A89" s="56" t="s">
         <v>835</v>
       </c>
-      <c r="B89" s="78">
+      <c r="B89" s="76">
         <f>SUM(B90:B94)</f>
         <v>115412</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A90" s="77" t="s">
+      <c r="A90" s="75" t="s">
         <v>70</v>
       </c>
-      <c r="B90" s="76">
+      <c r="B90" s="74">
         <v>35699</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A91" s="77" t="s">
+      <c r="A91" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="B91" s="76">
+      <c r="B91" s="74">
         <v>9725</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A92" s="77" t="s">
+      <c r="A92" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="B92" s="76">
+      <c r="B92" s="74">
         <v>1951</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A93" s="77" t="s">
+      <c r="A93" s="75" t="s">
         <v>73</v>
       </c>
-      <c r="B93" s="76">
+      <c r="B93" s="74">
         <v>56888</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A94" s="77" t="s">
+      <c r="A94" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="B94" s="76">
+      <c r="B94" s="74">
         <v>11149</v>
       </c>
     </row>
@@ -40090,13 +41213,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C380484-3796-4D63-BB32-1CB61CAC6449}">
   <dimension ref="A1:CQ80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:K6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
@@ -61652,7 +62773,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73ACDE3C-D3D6-45A5-8B03-E0FE64B362ED}">
   <dimension ref="A1"/>
   <sheetViews>
